--- a/data/대한민국_여름기온_2023.xlsx
+++ b/data/대한민국_여름기온_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\Smart_Factory_Project_Data_Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE71A21B-204F-48E0-AE23-469EA3F77637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17174041-8DB3-4448-99D4-178BE302C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>지점정보</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>춘천(101)</t>
-  </si>
-  <si>
-    <t>백령도(102)</t>
   </si>
   <si>
     <t>북강릉(104)</t>
@@ -640,13 +637,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -813,19 +813,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>124.71237000000001</v>
+        <v>128.85534999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>37.973959999999998</v>
+        <v>37.804560000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>22.7</v>
+        <v>24.1</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="F9" s="1">
-        <v>25.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -833,19 +833,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>128.85534999999999</v>
+        <v>128.89098999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>37.804560000000002</v>
+        <v>37.751469999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>24.1</v>
+        <v>25.6</v>
       </c>
       <c r="E10" s="1">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="F10" s="1">
-        <v>28</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -853,19 +853,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>128.89098999999999</v>
+        <v>129.12432999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>37.751469999999998</v>
+        <v>37.507089999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>25.6</v>
+        <v>23.7</v>
       </c>
       <c r="E11" s="1">
-        <v>22.2</v>
+        <v>20.8</v>
       </c>
       <c r="F11" s="1">
-        <v>29.6</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -873,19 +873,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>129.12432999999999</v>
+        <v>126.9658</v>
       </c>
       <c r="C12" s="1">
-        <v>37.507089999999998</v>
+        <v>37.571420000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>23.7</v>
+        <v>25.8</v>
       </c>
       <c r="E12" s="1">
-        <v>20.8</v>
+        <v>22.6</v>
       </c>
       <c r="F12" s="1">
-        <v>27.3</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -893,19 +893,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>126.9658</v>
+        <v>126.6249</v>
       </c>
       <c r="C13" s="1">
-        <v>37.571420000000003</v>
+        <v>37.477719999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="E13" s="1">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="F13" s="1">
-        <v>29.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -913,19 +913,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>126.6249</v>
+        <v>127.94659</v>
       </c>
       <c r="C14" s="1">
-        <v>37.477719999999998</v>
+        <v>37.337490000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="E14" s="1">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="F14" s="1">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -933,19 +933,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>127.94659</v>
+        <v>130.89863</v>
       </c>
       <c r="C15" s="1">
-        <v>37.337490000000003</v>
+        <v>37.481290000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="E15" s="1">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="F15" s="1">
-        <v>29.6</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -953,19 +953,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>130.89863</v>
+        <v>126.983</v>
       </c>
       <c r="C16" s="1">
-        <v>37.481290000000001</v>
+        <v>37.257460000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="F16" s="1">
-        <v>27.4</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -973,19 +973,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>126.983</v>
+        <v>128.45742999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>37.257460000000002</v>
+        <v>37.181260000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -993,19 +993,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>128.45742999999999</v>
+        <v>127.9525</v>
       </c>
       <c r="C18" s="1">
-        <v>37.181260000000002</v>
+        <v>36.97045</v>
       </c>
       <c r="D18" s="1">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="F18" s="1">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1013,19 +1013,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>127.9525</v>
+        <v>126.4939</v>
       </c>
       <c r="C19" s="1">
-        <v>36.97045</v>
+        <v>36.776580000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="E19" s="1">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="F19" s="1">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1033,19 +1033,19 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>126.4939</v>
+        <v>129.41278</v>
       </c>
       <c r="C20" s="1">
-        <v>36.776580000000003</v>
+        <v>36.991759999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>24.8</v>
+        <v>23.6</v>
       </c>
       <c r="E20" s="1">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="F20" s="1">
-        <v>29.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1053,19 +1053,19 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>129.41278</v>
+        <v>127.44065999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>36.991759999999999</v>
+        <v>36.639240000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>23.6</v>
+        <v>26.5</v>
       </c>
       <c r="E21" s="1">
-        <v>20.6</v>
+        <v>22.9</v>
       </c>
       <c r="F21" s="1">
-        <v>27.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1073,19 +1073,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>127.44065999999999</v>
+        <v>127.3721</v>
       </c>
       <c r="C22" s="1">
-        <v>36.639240000000001</v>
+        <v>36.371989999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E22" s="1">
-        <v>22.9</v>
+        <v>21.6</v>
       </c>
       <c r="F22" s="1">
-        <v>31</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1093,19 +1093,19 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>127.3721</v>
+        <v>127.99458</v>
       </c>
       <c r="C23" s="1">
-        <v>36.371989999999997</v>
+        <v>36.22025</v>
       </c>
       <c r="D23" s="1">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
-        <v>21.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1113,19 +1113,19 @@
         <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>127.99458</v>
+        <v>128.70733000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>36.22025</v>
+        <v>36.572929999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1">
-        <v>19.899999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="F24" s="1">
-        <v>28.9</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1133,19 +1133,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>128.70733000000001</v>
+        <v>128.15741</v>
       </c>
       <c r="C25" s="1">
-        <v>36.572929999999999</v>
+        <v>36.408369999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E25" s="1">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="F25" s="1">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1153,19 +1153,19 @@
         <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>128.15741</v>
+        <v>129.38002</v>
       </c>
       <c r="C26" s="1">
-        <v>36.408369999999998</v>
+        <v>36.03201</v>
       </c>
       <c r="D26" s="1">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E26" s="1">
-        <v>21.5</v>
+        <v>22.7</v>
       </c>
       <c r="F26" s="1">
-        <v>30.5</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1173,19 +1173,19 @@
         <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>129.38002</v>
+        <v>126.76134999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>36.03201</v>
+        <v>36.005299999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1">
-        <v>22.7</v>
+        <v>21.8</v>
       </c>
       <c r="F27" s="1">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1193,19 +1193,19 @@
         <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>126.76134999999999</v>
+        <v>128.65296000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>36.005299999999998</v>
+        <v>35.877969999999998</v>
       </c>
       <c r="D28" s="1">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="E28" s="1">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="F28" s="1">
-        <v>29.1</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1213,19 +1213,19 @@
         <v>33</v>
       </c>
       <c r="B29" s="1">
-        <v>128.65296000000001</v>
+        <v>127.11718</v>
       </c>
       <c r="C29" s="1">
-        <v>35.877969999999998</v>
+        <v>35.840919999999997</v>
       </c>
       <c r="D29" s="1">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="E29" s="1">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="F29" s="1">
-        <v>30.9</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1233,19 +1233,19 @@
         <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>127.11718</v>
+        <v>129.33468999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>35.840919999999997</v>
+        <v>35.582369999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="E30" s="1">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="F30" s="1">
-        <v>30.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1253,19 +1253,19 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>129.33468999999999</v>
+        <v>128.57282000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>35.582369999999997</v>
+        <v>35.170189999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="E31" s="1">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="F31" s="1">
-        <v>29</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1273,19 +1273,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>128.57282000000001</v>
+        <v>126.89156</v>
       </c>
       <c r="C32" s="1">
-        <v>35.170189999999998</v>
+        <v>35.172939999999997</v>
       </c>
       <c r="D32" s="1">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="E32" s="1">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="F32" s="1">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -1293,19 +1293,19 @@
         <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>126.89156</v>
+        <v>129.03202999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>35.172939999999997</v>
+        <v>35.104680000000002</v>
       </c>
       <c r="D33" s="1">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="E33" s="1">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="F33" s="1">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1313,19 +1313,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="1">
-        <v>129.03202999999999</v>
+        <v>128.43561</v>
       </c>
       <c r="C34" s="1">
-        <v>35.104680000000002</v>
+        <v>34.845410000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="E34" s="1">
-        <v>22.9</v>
+        <v>22.1</v>
       </c>
       <c r="F34" s="1">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1333,19 +1333,19 @@
         <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>128.43561</v>
+        <v>126.38151000000001</v>
       </c>
       <c r="C35" s="1">
-        <v>34.845410000000001</v>
+        <v>34.817320000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="E35" s="1">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="F35" s="1">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1353,19 +1353,19 @@
         <v>40</v>
       </c>
       <c r="B36" s="1">
-        <v>126.38151000000001</v>
+        <v>127.74063</v>
       </c>
       <c r="C36" s="1">
-        <v>34.817320000000002</v>
+        <v>34.739289999999997</v>
       </c>
       <c r="D36" s="1">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="E36" s="1">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F36" s="1">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1373,19 +1373,19 @@
         <v>41</v>
       </c>
       <c r="B37" s="1">
-        <v>127.74063</v>
+        <v>125.45105</v>
       </c>
       <c r="C37" s="1">
-        <v>34.739289999999997</v>
+        <v>34.687190000000001</v>
       </c>
       <c r="D37" s="1">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="E37" s="1">
-        <v>22.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F37" s="1">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -1393,19 +1393,19 @@
         <v>42</v>
       </c>
       <c r="B38" s="1">
-        <v>125.45105</v>
+        <v>126.70182</v>
       </c>
       <c r="C38" s="1">
-        <v>34.687190000000001</v>
+        <v>34.395899999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>22.8</v>
+        <v>25.2</v>
       </c>
       <c r="E38" s="1">
-        <v>20.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="F38" s="1">
-        <v>26.2</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1413,19 +1413,19 @@
         <v>43</v>
       </c>
       <c r="B39" s="1">
-        <v>126.70182</v>
+        <v>127.3694</v>
       </c>
       <c r="C39" s="1">
-        <v>34.395899999999997</v>
+        <v>35.020400000000002</v>
       </c>
       <c r="D39" s="1">
-        <v>25.2</v>
+        <v>24.2</v>
       </c>
       <c r="E39" s="1">
-        <v>22.3</v>
+        <v>20.3</v>
       </c>
       <c r="F39" s="1">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1433,19 +1433,19 @@
         <v>44</v>
       </c>
       <c r="B40" s="1">
-        <v>127.3694</v>
+        <v>126.68772</v>
       </c>
       <c r="C40" s="1">
-        <v>35.020400000000002</v>
+        <v>36.657589999999999</v>
       </c>
       <c r="D40" s="1">
-        <v>24.2</v>
+        <v>25.1</v>
       </c>
       <c r="E40" s="1">
-        <v>20.3</v>
+        <v>21.5</v>
       </c>
       <c r="F40" s="1">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -1453,19 +1453,19 @@
         <v>45</v>
       </c>
       <c r="B41" s="1">
-        <v>126.68772</v>
+        <v>127.396944</v>
       </c>
       <c r="C41" s="1">
-        <v>36.657589999999999</v>
+        <v>36.639719999999997</v>
       </c>
       <c r="D41" s="1">
         <v>25.1</v>
       </c>
       <c r="E41" s="1">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="F41" s="1">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1473,19 +1473,19 @@
         <v>46</v>
       </c>
       <c r="B42" s="1">
-        <v>127.396944</v>
+        <v>126.52969</v>
       </c>
       <c r="C42" s="1">
-        <v>36.639719999999997</v>
+        <v>33.514110000000002</v>
       </c>
       <c r="D42" s="1">
-        <v>25.1</v>
+        <v>26.8</v>
       </c>
       <c r="E42" s="1">
-        <v>21.1</v>
+        <v>24.1</v>
       </c>
       <c r="F42" s="1">
-        <v>30.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -1493,19 +1493,19 @@
         <v>47</v>
       </c>
       <c r="B43" s="1">
-        <v>126.52969</v>
+        <v>126.16283</v>
       </c>
       <c r="C43" s="1">
-        <v>33.514110000000002</v>
+        <v>33.293819999999997</v>
       </c>
       <c r="D43" s="1">
-        <v>26.8</v>
+        <v>24.7</v>
       </c>
       <c r="E43" s="1">
-        <v>24.1</v>
+        <v>22.7</v>
       </c>
       <c r="F43" s="1">
-        <v>30</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -1513,19 +1513,19 @@
         <v>48</v>
       </c>
       <c r="B44" s="1">
-        <v>126.16283</v>
+        <v>126.8802</v>
       </c>
       <c r="C44" s="1">
-        <v>33.293819999999997</v>
+        <v>33.386769999999999</v>
       </c>
       <c r="D44" s="1">
-        <v>24.7</v>
+        <v>25.5</v>
       </c>
       <c r="E44" s="1">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F44" s="1">
-        <v>27.1</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -1533,19 +1533,19 @@
         <v>49</v>
       </c>
       <c r="B45" s="1">
-        <v>126.8802</v>
+        <v>126.56529999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>33.386769999999999</v>
+        <v>33.246160000000003</v>
       </c>
       <c r="D45" s="1">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E45" s="1">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="F45" s="1">
-        <v>28.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -1553,19 +1553,19 @@
         <v>50</v>
       </c>
       <c r="B46" s="1">
-        <v>126.56529999999999</v>
+        <v>128.04004</v>
       </c>
       <c r="C46" s="1">
-        <v>33.246160000000003</v>
+        <v>35.163780000000003</v>
       </c>
       <c r="D46" s="1">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="E46" s="1">
-        <v>23.5</v>
+        <v>21.3</v>
       </c>
       <c r="F46" s="1">
-        <v>28</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -1573,19 +1573,19 @@
         <v>51</v>
       </c>
       <c r="B47" s="1">
-        <v>128.04004</v>
+        <v>126.44634000000001</v>
       </c>
       <c r="C47" s="1">
-        <v>35.163780000000003</v>
+        <v>37.707389999999997</v>
       </c>
       <c r="D47" s="1">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="E47" s="1">
-        <v>21.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F47" s="1">
-        <v>30.1</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -1593,19 +1593,19 @@
         <v>52</v>
       </c>
       <c r="B48" s="1">
-        <v>126.44634000000001</v>
+        <v>127.49446</v>
       </c>
       <c r="C48" s="1">
-        <v>37.707389999999997</v>
+        <v>37.488630000000001</v>
       </c>
       <c r="D48" s="1">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="E48" s="1">
-        <v>20.399999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="F48" s="1">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -1613,19 +1613,19 @@
         <v>53</v>
       </c>
       <c r="B49" s="1">
-        <v>127.49446</v>
+        <v>127.48421</v>
       </c>
       <c r="C49" s="1">
-        <v>37.488630000000001</v>
+        <v>37.26399</v>
       </c>
       <c r="D49" s="1">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E49" s="1">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1">
-        <v>29.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -1633,19 +1633,19 @@
         <v>54</v>
       </c>
       <c r="B50" s="1">
-        <v>127.48421</v>
+        <v>128.16713999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>37.26399</v>
+        <v>38.05986</v>
       </c>
       <c r="D50" s="1">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="E50" s="1">
-        <v>21</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F50" s="1">
-        <v>30</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -1653,19 +1653,19 @@
         <v>55</v>
       </c>
       <c r="B51" s="1">
-        <v>128.16713999999999</v>
+        <v>127.88043</v>
       </c>
       <c r="C51" s="1">
-        <v>38.05986</v>
+        <v>37.683599999999998</v>
       </c>
       <c r="D51" s="1">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="E51" s="1">
-        <v>20.100000000000001</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F51" s="1">
-        <v>29.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -1673,19 +1673,19 @@
         <v>56</v>
       </c>
       <c r="B52" s="1">
-        <v>127.88043</v>
+        <v>128.98929000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>37.683599999999998</v>
+        <v>37.170380000000002</v>
       </c>
       <c r="D52" s="1">
-        <v>24.5</v>
+        <v>21.7</v>
       </c>
       <c r="E52" s="1">
-        <v>20.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="F52" s="1">
-        <v>30</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -1693,19 +1693,19 @@
         <v>57</v>
       </c>
       <c r="B53" s="1">
-        <v>128.98929000000001</v>
+        <v>128.64590000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>37.170380000000002</v>
+        <v>37.381489999999999</v>
       </c>
       <c r="D53" s="1">
-        <v>21.7</v>
+        <v>23.8</v>
       </c>
       <c r="E53" s="1">
-        <v>17.3</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F53" s="1">
-        <v>27.2</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -1713,19 +1713,19 @@
         <v>58</v>
       </c>
       <c r="B54" s="1">
-        <v>128.64590000000001</v>
+        <v>128.19433000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>37.381489999999999</v>
+        <v>37.159280000000003</v>
       </c>
       <c r="D54" s="1">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E54" s="1">
-        <v>19.100000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="F54" s="1">
-        <v>30.5</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -1733,19 +1733,19 @@
         <v>59</v>
       </c>
       <c r="B55" s="1">
-        <v>128.19433000000001</v>
+        <v>127.73415</v>
       </c>
       <c r="C55" s="1">
-        <v>37.159280000000003</v>
+        <v>36.487609999999997</v>
       </c>
       <c r="D55" s="1">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="E55" s="1">
-        <v>19.7</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F55" s="1">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -1753,19 +1753,19 @@
         <v>60</v>
       </c>
       <c r="B56" s="1">
-        <v>127.73415</v>
+        <v>127.29282000000001</v>
       </c>
       <c r="C56" s="1">
-        <v>36.487609999999997</v>
+        <v>36.762169999999998</v>
       </c>
       <c r="D56" s="1">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="E56" s="1">
-        <v>20.399999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="F56" s="1">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -1773,19 +1773,19 @@
         <v>61</v>
       </c>
       <c r="B57" s="1">
-        <v>127.29282000000001</v>
+        <v>126.55744</v>
       </c>
       <c r="C57" s="1">
-        <v>36.762169999999998</v>
+        <v>36.327240000000003</v>
       </c>
       <c r="D57" s="1">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E57" s="1">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="F57" s="1">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -1793,19 +1793,19 @@
         <v>62</v>
       </c>
       <c r="B58" s="1">
-        <v>126.55744</v>
+        <v>126.92079</v>
       </c>
       <c r="C58" s="1">
-        <v>36.327240000000003</v>
+        <v>36.272419999999997</v>
       </c>
       <c r="D58" s="1">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="E58" s="1">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F58" s="1">
-        <v>28.9</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -1813,19 +1813,19 @@
         <v>63</v>
       </c>
       <c r="B59" s="1">
-        <v>126.92079</v>
+        <v>127.48175000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>36.272419999999997</v>
+        <v>36.105629999999998</v>
       </c>
       <c r="D59" s="1">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="E59" s="1">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="F59" s="1">
-        <v>30.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -1833,16 +1833,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="1">
-        <v>127.48175000000001</v>
+        <v>127.24438000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>36.105629999999998</v>
+        <v>36.485219999999998</v>
       </c>
       <c r="D60" s="1">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="E60" s="1">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="F60" s="1">
         <v>30</v>
@@ -1853,19 +1853,19 @@
         <v>65</v>
       </c>
       <c r="B61" s="1">
-        <v>127.24438000000001</v>
+        <v>126.71657</v>
       </c>
       <c r="C61" s="1">
-        <v>36.485219999999998</v>
+        <v>35.729610000000001</v>
       </c>
       <c r="D61" s="1">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E61" s="1">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="F61" s="1">
-        <v>30</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -1873,19 +1873,19 @@
         <v>66</v>
       </c>
       <c r="B62" s="1">
-        <v>126.71657</v>
+        <v>127.28556</v>
       </c>
       <c r="C62" s="1">
-        <v>35.729610000000001</v>
+        <v>35.612029999999997</v>
       </c>
       <c r="D62" s="1">
-        <v>25.2</v>
+        <v>24.2</v>
       </c>
       <c r="E62" s="1">
-        <v>21.9</v>
+        <v>20.5</v>
       </c>
       <c r="F62" s="1">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -1893,19 +1893,19 @@
         <v>67</v>
       </c>
       <c r="B63" s="1">
-        <v>127.28556</v>
+        <v>126.83904</v>
       </c>
       <c r="C63" s="1">
-        <v>35.612029999999997</v>
+        <v>35.563369999999999</v>
       </c>
       <c r="D63" s="1">
-        <v>24.2</v>
+        <v>25.3</v>
       </c>
       <c r="E63" s="1">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="F63" s="1">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -1913,10 +1913,10 @@
         <v>68</v>
       </c>
       <c r="B64" s="1">
-        <v>126.83904</v>
+        <v>127.39652</v>
       </c>
       <c r="C64" s="1">
-        <v>35.563369999999999</v>
+        <v>35.421300000000002</v>
       </c>
       <c r="D64" s="1">
         <v>25.3</v>
@@ -1925,7 +1925,7 @@
         <v>21.4</v>
       </c>
       <c r="F64" s="1">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -1933,19 +1933,19 @@
         <v>69</v>
       </c>
       <c r="B65" s="1">
-        <v>127.39652</v>
+        <v>127.52030999999999</v>
       </c>
       <c r="C65" s="1">
-        <v>35.421300000000002</v>
+        <v>35.656959999999998</v>
       </c>
       <c r="D65" s="1">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
       <c r="E65" s="1">
-        <v>21.4</v>
+        <v>19.3</v>
       </c>
       <c r="F65" s="1">
-        <v>30.5</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -1953,19 +1953,19 @@
         <v>70</v>
       </c>
       <c r="B66" s="1">
-        <v>127.52030999999999</v>
+        <v>126.697</v>
       </c>
       <c r="C66" s="1">
-        <v>35.656959999999998</v>
+        <v>35.426609999999997</v>
       </c>
       <c r="D66" s="1">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="E66" s="1">
-        <v>19.3</v>
+        <v>21.1</v>
       </c>
       <c r="F66" s="1">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -1973,19 +1973,19 @@
         <v>71</v>
       </c>
       <c r="B67" s="1">
-        <v>126.697</v>
+        <v>126.47784</v>
       </c>
       <c r="C67" s="1">
-        <v>35.426609999999997</v>
+        <v>35.283659999999998</v>
       </c>
       <c r="D67" s="1">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="F67" s="1">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -1993,19 +1993,19 @@
         <v>72</v>
       </c>
       <c r="B68" s="1">
-        <v>126.47784</v>
+        <v>128.89075</v>
       </c>
       <c r="C68" s="1">
-        <v>35.283659999999998</v>
+        <v>35.229810000000001</v>
       </c>
       <c r="D68" s="1">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="E68" s="1">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="F68" s="1">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2013,19 +2013,19 @@
         <v>73</v>
       </c>
       <c r="B69" s="1">
-        <v>128.89075</v>
+        <v>127.12860000000001</v>
       </c>
       <c r="C69" s="1">
-        <v>35.229810000000001</v>
+        <v>35.371310000000001</v>
       </c>
       <c r="D69" s="1">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="E69" s="1">
-        <v>22.1</v>
+        <v>21.2</v>
       </c>
       <c r="F69" s="1">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2033,19 +2033,19 @@
         <v>74</v>
       </c>
       <c r="B70" s="1">
-        <v>127.12860000000001</v>
+        <v>128.67259999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>35.371310000000001</v>
+        <v>35.226550000000003</v>
       </c>
       <c r="D70" s="1">
-        <v>25.1</v>
+        <v>26.4</v>
       </c>
       <c r="E70" s="1">
-        <v>21.2</v>
+        <v>23.1</v>
       </c>
       <c r="F70" s="1">
-        <v>30.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2053,19 +2053,19 @@
         <v>75</v>
       </c>
       <c r="B71" s="1">
-        <v>128.67259999999999</v>
+        <v>129.02009000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>35.226550000000003</v>
+        <v>35.307369999999999</v>
       </c>
       <c r="D71" s="1">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E71" s="1">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="F71" s="1">
-        <v>31</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2073,19 +2073,19 @@
         <v>76</v>
       </c>
       <c r="B72" s="1">
-        <v>129.02009000000001</v>
+        <v>127.21226</v>
       </c>
       <c r="C72" s="1">
-        <v>35.307369999999999</v>
+        <v>34.763350000000003</v>
       </c>
       <c r="D72" s="1">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="E72" s="1">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="F72" s="1">
-        <v>31.2</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2093,19 +2093,19 @@
         <v>77</v>
       </c>
       <c r="B73" s="1">
-        <v>127.21226</v>
+        <v>126.78408</v>
       </c>
       <c r="C73" s="1">
-        <v>34.763350000000003</v>
+        <v>34.644570000000002</v>
       </c>
       <c r="D73" s="1">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E73" s="1">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="F73" s="1">
-        <v>29.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2113,19 +2113,19 @@
         <v>78</v>
       </c>
       <c r="B74" s="1">
-        <v>126.78408</v>
+        <v>126.91951</v>
       </c>
       <c r="C74" s="1">
-        <v>34.644570000000002</v>
+        <v>34.688859999999998</v>
       </c>
       <c r="D74" s="1">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="F74" s="1">
-        <v>30</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2133,19 +2133,19 @@
         <v>79</v>
       </c>
       <c r="B75" s="1">
-        <v>126.91951</v>
+        <v>126.56907</v>
       </c>
       <c r="C75" s="1">
-        <v>34.688859999999998</v>
+        <v>34.553750000000001</v>
       </c>
       <c r="D75" s="1">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E75" s="1">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="F75" s="1">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2153,19 +2153,19 @@
         <v>80</v>
       </c>
       <c r="B76" s="1">
-        <v>126.56907</v>
+        <v>127.27572000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>34.553750000000001</v>
+        <v>34.618259999999999</v>
       </c>
       <c r="D76" s="1">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="E76" s="1">
-        <v>21.8</v>
+        <v>20.7</v>
       </c>
       <c r="F76" s="1">
-        <v>29.3</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2173,19 +2173,19 @@
         <v>81</v>
       </c>
       <c r="B77" s="1">
-        <v>127.27572000000001</v>
+        <v>128.28811999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>34.618259999999999</v>
+        <v>35.322580000000002</v>
       </c>
       <c r="D77" s="1">
-        <v>24.2</v>
+        <v>25.9</v>
       </c>
       <c r="E77" s="1">
-        <v>20.7</v>
+        <v>21.7</v>
       </c>
       <c r="F77" s="1">
-        <v>28.3</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2193,19 +2193,19 @@
         <v>82</v>
       </c>
       <c r="B78" s="1">
-        <v>128.28811999999999</v>
+        <v>127.74538</v>
       </c>
       <c r="C78" s="1">
-        <v>35.322580000000002</v>
+        <v>35.511380000000003</v>
       </c>
       <c r="D78" s="1">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="E78" s="1">
-        <v>21.7</v>
+        <v>20.8</v>
       </c>
       <c r="F78" s="1">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2213,19 +2213,19 @@
         <v>83</v>
       </c>
       <c r="B79" s="1">
-        <v>127.74538</v>
+        <v>127.6914</v>
       </c>
       <c r="C79" s="1">
-        <v>35.511380000000003</v>
+        <v>34.943399999999997</v>
       </c>
       <c r="D79" s="1">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="E79" s="1">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="F79" s="1">
-        <v>30.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2233,19 +2233,19 @@
         <v>84</v>
       </c>
       <c r="B80" s="1">
-        <v>127.6914</v>
+        <v>126.25846</v>
       </c>
       <c r="C80" s="1">
-        <v>34.943399999999997</v>
+        <v>34.47296</v>
       </c>
       <c r="D80" s="1">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="E80" s="1">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
       <c r="F80" s="1">
-        <v>29.6</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2253,19 +2253,19 @@
         <v>85</v>
       </c>
       <c r="B81" s="1">
-        <v>126.25846</v>
+        <v>128.91449</v>
       </c>
       <c r="C81" s="1">
-        <v>34.47296</v>
+        <v>36.94361</v>
       </c>
       <c r="D81" s="1">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="E81" s="1">
-        <v>21.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F81" s="1">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2273,19 +2273,19 @@
         <v>86</v>
       </c>
       <c r="B82" s="1">
-        <v>128.91449</v>
+        <v>128.51687000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>36.94361</v>
+        <v>36.871830000000003</v>
       </c>
       <c r="D82" s="1">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="E82" s="1">
-        <v>18.600000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="F82" s="1">
-        <v>28.1</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2293,19 +2293,19 @@
         <v>87</v>
       </c>
       <c r="B83" s="1">
-        <v>128.51687000000001</v>
+        <v>128.14878999999999</v>
       </c>
       <c r="C83" s="1">
-        <v>36.871830000000003</v>
+        <v>36.627270000000003</v>
       </c>
       <c r="D83" s="1">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="E83" s="1">
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="F83" s="1">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2313,19 +2313,19 @@
         <v>88</v>
       </c>
       <c r="B84" s="1">
-        <v>128.14878999999999</v>
+        <v>129.04005000000001</v>
       </c>
       <c r="C84" s="1">
-        <v>36.627270000000003</v>
+        <v>36.435099999999998</v>
       </c>
       <c r="D84" s="1">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="E84" s="1">
-        <v>20.5</v>
+        <v>19.2</v>
       </c>
       <c r="F84" s="1">
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2333,19 +2333,19 @@
         <v>89</v>
       </c>
       <c r="B85" s="1">
-        <v>129.04005000000001</v>
+        <v>129.40925999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>36.435099999999998</v>
+        <v>36.533369999999998</v>
       </c>
       <c r="D85" s="1">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E85" s="1">
-        <v>19.2</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F85" s="1">
-        <v>30.5</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2353,19 +2353,19 @@
         <v>90</v>
       </c>
       <c r="B86" s="1">
-        <v>129.40925999999999</v>
+        <v>128.68863999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>36.533369999999998</v>
+        <v>36.356099999999998</v>
       </c>
       <c r="D86" s="1">
-        <v>23.9</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1">
         <v>20.399999999999999</v>
       </c>
       <c r="F86" s="1">
-        <v>28.4</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2373,19 +2373,19 @@
         <v>91</v>
       </c>
       <c r="B87" s="1">
-        <v>128.68863999999999</v>
+        <v>128.32055</v>
       </c>
       <c r="C87" s="1">
-        <v>36.356099999999998</v>
+        <v>36.130549999999999</v>
       </c>
       <c r="D87" s="1">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="E87" s="1">
-        <v>20.399999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="F87" s="1">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2393,19 +2393,19 @@
         <v>92</v>
       </c>
       <c r="B88" s="1">
-        <v>128.32055</v>
+        <v>128.95140000000001</v>
       </c>
       <c r="C88" s="1">
-        <v>36.130549999999999</v>
+        <v>35.977420000000002</v>
       </c>
       <c r="D88" s="1">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="E88" s="1">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
       <c r="F88" s="1">
-        <v>30.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2413,19 +2413,19 @@
         <v>93</v>
       </c>
       <c r="B89" s="1">
-        <v>128.95140000000001</v>
+        <v>129.20089999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>35.977420000000002</v>
+        <v>35.817399999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="E89" s="1">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="F89" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2433,19 +2433,19 @@
         <v>94</v>
       </c>
       <c r="B90" s="1">
-        <v>129.20089999999999</v>
+        <v>127.90989999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>35.817399999999999</v>
+        <v>35.667389999999997</v>
       </c>
       <c r="D90" s="1">
-        <v>25.5</v>
+        <v>24.2</v>
       </c>
       <c r="E90" s="1">
-        <v>21.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F90" s="1">
-        <v>31</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -2453,19 +2453,19 @@
         <v>95</v>
       </c>
       <c r="B91" s="1">
-        <v>127.90989999999999</v>
+        <v>128.16994</v>
       </c>
       <c r="C91" s="1">
-        <v>35.667389999999997</v>
+        <v>35.565049999999999</v>
       </c>
       <c r="D91" s="1">
-        <v>24.2</v>
+        <v>25.3</v>
       </c>
       <c r="E91" s="1">
-        <v>20.100000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="F91" s="1">
-        <v>29.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -2473,19 +2473,19 @@
         <v>96</v>
       </c>
       <c r="B92" s="1">
-        <v>128.16994</v>
+        <v>128.74412000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>35.565049999999999</v>
+        <v>35.49147</v>
       </c>
       <c r="D92" s="1">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="E92" s="1">
-        <v>21.2</v>
+        <v>22.1</v>
       </c>
       <c r="F92" s="1">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -2493,19 +2493,19 @@
         <v>97</v>
       </c>
       <c r="B93" s="1">
-        <v>128.74412000000001</v>
+        <v>127.87909999999999</v>
       </c>
       <c r="C93" s="1">
-        <v>35.49147</v>
+        <v>35.412999999999997</v>
       </c>
       <c r="D93" s="1">
-        <v>26</v>
+        <v>24.9</v>
       </c>
       <c r="E93" s="1">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1">
-        <v>31.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -2513,19 +2513,19 @@
         <v>98</v>
       </c>
       <c r="B94" s="1">
-        <v>127.87909999999999</v>
+        <v>128.60459</v>
       </c>
       <c r="C94" s="1">
-        <v>35.412999999999997</v>
+        <v>34.888179999999998</v>
       </c>
       <c r="D94" s="1">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E94" s="1">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="F94" s="1">
-        <v>30</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -2533,38 +2533,18 @@
         <v>99</v>
       </c>
       <c r="B95" s="1">
-        <v>128.60459</v>
+        <v>127.92641</v>
       </c>
       <c r="C95" s="1">
-        <v>34.888179999999998</v>
+        <v>34.81662</v>
       </c>
       <c r="D95" s="1">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E95" s="1">
         <v>21.9</v>
       </c>
       <c r="F95" s="1">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="1">
-        <v>127.92641</v>
-      </c>
-      <c r="C96" s="1">
-        <v>34.81662</v>
-      </c>
-      <c r="D96" s="1">
-        <v>25</v>
-      </c>
-      <c r="E96" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="F96" s="1">
         <v>29</v>
       </c>
     </row>
